--- a/Output_testing/R1_201907/Country/HKD/MN/CANADA_201907_HKD_MN.xlsx
+++ b/Output_testing/R1_201907/Country/HKD/MN/CANADA_201907_HKD_MN.xlsx
@@ -810,136 +810,435 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="11" t="n"/>
-      <c r="C18" s="12" t="n"/>
-      <c r="D18" s="13" t="n"/>
-      <c r="E18" s="12" t="n"/>
-      <c r="F18" s="13" t="n"/>
-      <c r="G18" s="12" t="n"/>
-      <c r="H18" s="13" t="n"/>
-      <c r="I18" s="12" t="n"/>
-      <c r="J18" s="13" t="n"/>
-      <c r="K18" s="13" t="n"/>
+      <c r="A18" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B18" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C18" s="8" t="n">
+        <v>3317.287173</v>
+      </c>
+      <c r="D18" s="9" t="n">
+        <v>17.954115386643</v>
+      </c>
+      <c r="E18" s="8" t="n">
+        <v>3399.643108</v>
+      </c>
+      <c r="F18" s="9" t="n">
+        <v>19.13371827729275</v>
+      </c>
+      <c r="G18" s="8" t="n">
+        <v>4081.461216</v>
+      </c>
+      <c r="H18" s="9" t="n">
+        <v>22.10548731058107</v>
+      </c>
+      <c r="I18" s="8" t="n">
+        <v>2483.459088</v>
+      </c>
+      <c r="J18" s="9" t="n">
+        <v>23.18900508053429</v>
+      </c>
+      <c r="K18" s="9" t="n">
+        <v>29.7239182418876</v>
+      </c>
     </row>
     <row r="19">
-      <c r="A19" s="11" t="n"/>
-      <c r="C19" s="12" t="n"/>
-      <c r="D19" s="13" t="n"/>
-      <c r="E19" s="12" t="n"/>
-      <c r="F19" s="13" t="n"/>
-      <c r="G19" s="12" t="n"/>
-      <c r="H19" s="13" t="n"/>
-      <c r="I19" s="12" t="n"/>
-      <c r="J19" s="13" t="n"/>
-      <c r="K19" s="13" t="n"/>
+      <c r="A19" s="11" t="inlineStr">
+        <is>
+          <t>845</t>
+        </is>
+      </c>
+      <c r="B19" s="1" t="inlineStr">
+        <is>
+          <t>ARTICLES OF APPAREL, OF TEXTILE FABRICS, WHETHER OR NOT KNITTED OR CROCHETED, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C19" s="8" t="n">
+        <v>1508.807674</v>
+      </c>
+      <c r="D19" s="9" t="n">
+        <v>8.166102499576521</v>
+      </c>
+      <c r="E19" s="8" t="n">
+        <v>1414.890132</v>
+      </c>
+      <c r="F19" s="9" t="n">
+        <v>7.963220937898975</v>
+      </c>
+      <c r="G19" s="8" t="n">
+        <v>1432.766651</v>
+      </c>
+      <c r="H19" s="9" t="n">
+        <v>7.759967165324215</v>
+      </c>
+      <c r="I19" s="8" t="n">
+        <v>718.87274</v>
+      </c>
+      <c r="J19" s="9" t="n">
+        <v>6.712389062765832</v>
+      </c>
+      <c r="K19" s="9" t="n">
+        <v>0.251130166914515</v>
+      </c>
     </row>
     <row r="20">
-      <c r="A20" s="11" t="n"/>
-      <c r="C20" s="12" t="n"/>
-      <c r="D20" s="13" t="n"/>
-      <c r="E20" s="12" t="n"/>
-      <c r="F20" s="13" t="n"/>
-      <c r="G20" s="12" t="n"/>
-      <c r="H20" s="13" t="n"/>
-      <c r="I20" s="12" t="n"/>
-      <c r="J20" s="13" t="n"/>
-      <c r="K20" s="13" t="n"/>
+      <c r="A20" s="11" t="inlineStr">
+        <is>
+          <t>714</t>
+        </is>
+      </c>
+      <c r="B20" s="1" t="inlineStr">
+        <is>
+          <t>ENGINES AND MOTORS, NON-ELECTRIC (OTHER THAN THOSE OF GROUPS 712, 713 AND 718); PARTS, N.E.S. OF THESE ENGINES AND MOTORS</t>
+        </is>
+      </c>
+      <c r="C20" s="8" t="n">
+        <v>34.623706</v>
+      </c>
+      <c r="D20" s="9" t="n">
+        <v>0.1873934875752777</v>
+      </c>
+      <c r="E20" s="8" t="n">
+        <v>72.80865300000001</v>
+      </c>
+      <c r="F20" s="9" t="n">
+        <v>0.4097783827287453</v>
+      </c>
+      <c r="G20" s="8" t="n">
+        <v>249.744115</v>
+      </c>
+      <c r="H20" s="9" t="n">
+        <v>1.352632077791818</v>
+      </c>
+      <c r="I20" s="8" t="n">
+        <v>688.71142</v>
+      </c>
+      <c r="J20" s="9" t="n">
+        <v>6.430761309727679</v>
+      </c>
+      <c r="K20" s="9" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
     </row>
     <row r="21">
-      <c r="A21" s="11" t="n"/>
-      <c r="C21" s="12" t="n"/>
-      <c r="D21" s="13" t="n"/>
-      <c r="E21" s="12" t="n"/>
-      <c r="F21" s="13" t="n"/>
-      <c r="G21" s="12" t="n"/>
-      <c r="H21" s="13" t="n"/>
-      <c r="I21" s="12" t="n"/>
-      <c r="J21" s="13" t="n"/>
-      <c r="K21" s="13" t="n"/>
+      <c r="A21" s="11" t="inlineStr">
+        <is>
+          <t>752</t>
+        </is>
+      </c>
+      <c r="B21" s="1" t="inlineStr">
+        <is>
+          <t>AUTOMATIC DATA PROCESSING MACHINES &amp; UNITS THEREOF; MAGNETIC OR OPTICAL READERS, MACHINES FOR TRANSCRIBING DATA ONTO DATA MEDIA IN CODED FORM AND FOR PROCESSING SUCH DATA, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C21" s="8" t="n">
+        <v>1389.354721</v>
+      </c>
+      <c r="D21" s="9" t="n">
+        <v>7.519588649677387</v>
+      </c>
+      <c r="E21" s="8" t="n">
+        <v>1379.695626</v>
+      </c>
+      <c r="F21" s="9" t="n">
+        <v>7.76514080380259</v>
+      </c>
+      <c r="G21" s="8" t="n">
+        <v>1340.77388</v>
+      </c>
+      <c r="H21" s="9" t="n">
+        <v>7.261727705389164</v>
+      </c>
+      <c r="I21" s="8" t="n">
+        <v>576.591714</v>
+      </c>
+      <c r="J21" s="9" t="n">
+        <v>5.383856834987239</v>
+      </c>
+      <c r="K21" s="9" t="n">
+        <v>-35.71069271991527</v>
+      </c>
     </row>
     <row r="22">
-      <c r="A22" s="11" t="n"/>
-      <c r="C22" s="12" t="n"/>
-      <c r="D22" s="13" t="n"/>
-      <c r="E22" s="12" t="n"/>
-      <c r="F22" s="13" t="n"/>
-      <c r="G22" s="12" t="n"/>
-      <c r="H22" s="13" t="n"/>
-      <c r="I22" s="12" t="n"/>
-      <c r="J22" s="13" t="n"/>
-      <c r="K22" s="13" t="n"/>
+      <c r="A22" s="11" t="inlineStr">
+        <is>
+          <t>842</t>
+        </is>
+      </c>
+      <c r="B22" s="1" t="inlineStr">
+        <is>
+          <t>WOMEN'S OR GIRLS' COATS, CAPES, JACKETS, SUITS, TROUSERS, SHORTS, SHIRTS, DRESSES AND SKIRTS, UNDERWEAR, NIGHTWEAR AND SIMILAR ARTICLES, OF TEXTILE FABRICS, NOT KNITTED OR CROCHETED</t>
+        </is>
+      </c>
+      <c r="C22" s="8" t="n">
+        <v>908.7278669999999</v>
+      </c>
+      <c r="D22" s="9" t="n">
+        <v>4.918297430493809</v>
+      </c>
+      <c r="E22" s="8" t="n">
+        <v>879.107359</v>
+      </c>
+      <c r="F22" s="9" t="n">
+        <v>4.947752457609105</v>
+      </c>
+      <c r="G22" s="8" t="n">
+        <v>930.970554</v>
+      </c>
+      <c r="H22" s="9" t="n">
+        <v>5.042203436185154</v>
+      </c>
+      <c r="I22" s="8" t="n">
+        <v>526.943455</v>
+      </c>
+      <c r="J22" s="9" t="n">
+        <v>4.920272097169854</v>
+      </c>
+      <c r="K22" s="9" t="n">
+        <v>-1.135805634185727</v>
+      </c>
     </row>
     <row r="23">
-      <c r="A23" s="11" t="n"/>
-      <c r="C23" s="12" t="n"/>
-      <c r="D23" s="13" t="n"/>
-      <c r="E23" s="12" t="n"/>
-      <c r="F23" s="13" t="n"/>
-      <c r="G23" s="12" t="n"/>
-      <c r="H23" s="13" t="n"/>
-      <c r="I23" s="12" t="n"/>
-      <c r="J23" s="13" t="n"/>
-      <c r="K23" s="13" t="n"/>
+      <c r="A23" s="11" t="inlineStr">
+        <is>
+          <t>778</t>
+        </is>
+      </c>
+      <c r="B23" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL MACHINERY AND APPARATUS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C23" s="8" t="n">
+        <v>573.80628</v>
+      </c>
+      <c r="D23" s="9" t="n">
+        <v>3.105605159707522</v>
+      </c>
+      <c r="E23" s="8" t="n">
+        <v>537.279475</v>
+      </c>
+      <c r="F23" s="9" t="n">
+        <v>3.023892151099806</v>
+      </c>
+      <c r="G23" s="8" t="n">
+        <v>551.443216</v>
+      </c>
+      <c r="H23" s="9" t="n">
+        <v>2.986656094147734</v>
+      </c>
+      <c r="I23" s="8" t="n">
+        <v>492.487337</v>
+      </c>
+      <c r="J23" s="9" t="n">
+        <v>4.598542176504663</v>
+      </c>
+      <c r="K23" s="9" t="n">
+        <v>83.57733083953984</v>
+      </c>
     </row>
     <row r="24">
-      <c r="A24" s="11" t="n"/>
-      <c r="C24" s="12" t="n"/>
-      <c r="D24" s="13" t="n"/>
-      <c r="E24" s="12" t="n"/>
-      <c r="F24" s="13" t="n"/>
-      <c r="G24" s="12" t="n"/>
-      <c r="H24" s="13" t="n"/>
-      <c r="I24" s="12" t="n"/>
-      <c r="J24" s="13" t="n"/>
-      <c r="K24" s="13" t="n"/>
+      <c r="A24" s="11" t="inlineStr">
+        <is>
+          <t>772</t>
+        </is>
+      </c>
+      <c r="B24" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL APPARATUS FOR SWITCHING ELECTRICAL CIRCUITS; ELECTRICAL RESISTORS; PRINTED CIRCUITS; BOARDS, CABINETS AND OTHER BASES ETC, FOR ELECTRIC CONTROL OF ELECTRICITY</t>
+        </is>
+      </c>
+      <c r="C24" s="8" t="n">
+        <v>722.981732</v>
+      </c>
+      <c r="D24" s="9" t="n">
+        <v>3.912985750649995</v>
+      </c>
+      <c r="E24" s="8" t="n">
+        <v>737.704694</v>
+      </c>
+      <c r="F24" s="9" t="n">
+        <v>4.151916344870767</v>
+      </c>
+      <c r="G24" s="8" t="n">
+        <v>678.22122</v>
+      </c>
+      <c r="H24" s="9" t="n">
+        <v>3.673294876282077</v>
+      </c>
+      <c r="I24" s="8" t="n">
+        <v>384.151371</v>
+      </c>
+      <c r="J24" s="9" t="n">
+        <v>3.586967925848599</v>
+      </c>
+      <c r="K24" s="9" t="n">
+        <v>-2.538363347279105</v>
+      </c>
     </row>
     <row r="25">
-      <c r="A25" s="11" t="n"/>
-      <c r="C25" s="12" t="n"/>
-      <c r="D25" s="13" t="n"/>
-      <c r="E25" s="12" t="n"/>
-      <c r="F25" s="13" t="n"/>
-      <c r="G25" s="12" t="n"/>
-      <c r="H25" s="13" t="n"/>
-      <c r="I25" s="12" t="n"/>
-      <c r="J25" s="13" t="n"/>
-      <c r="K25" s="13" t="n"/>
+      <c r="A25" s="11" t="inlineStr">
+        <is>
+          <t>894</t>
+        </is>
+      </c>
+      <c r="B25" s="1" t="inlineStr">
+        <is>
+          <t>BABY CARRIAGES, TOYS, GAMES AND SPORTING GOODS</t>
+        </is>
+      </c>
+      <c r="C25" s="8" t="n">
+        <v>940.0363160000001</v>
+      </c>
+      <c r="D25" s="9" t="n">
+        <v>5.087747790564529</v>
+      </c>
+      <c r="E25" s="8" t="n">
+        <v>879.371402</v>
+      </c>
+      <c r="F25" s="9" t="n">
+        <v>4.949238532533617</v>
+      </c>
+      <c r="G25" s="8" t="n">
+        <v>848.827613</v>
+      </c>
+      <c r="H25" s="9" t="n">
+        <v>4.597311363510044</v>
+      </c>
+      <c r="I25" s="8" t="n">
+        <v>350.049472</v>
+      </c>
+      <c r="J25" s="9" t="n">
+        <v>3.268545483140388</v>
+      </c>
+      <c r="K25" s="9" t="n">
+        <v>-30.57088376759809</v>
+      </c>
     </row>
     <row r="26">
-      <c r="A26" s="11" t="n"/>
-      <c r="C26" s="12" t="n"/>
-      <c r="D26" s="13" t="n"/>
-      <c r="E26" s="12" t="n"/>
-      <c r="F26" s="13" t="n"/>
-      <c r="G26" s="12" t="n"/>
-      <c r="H26" s="13" t="n"/>
-      <c r="I26" s="12" t="n"/>
-      <c r="J26" s="13" t="n"/>
-      <c r="K26" s="13" t="n"/>
+      <c r="A26" s="11" t="inlineStr">
+        <is>
+          <t>897</t>
+        </is>
+      </c>
+      <c r="B26" s="1" t="inlineStr">
+        <is>
+          <t>JEWELLERY, GOLDSMITHS' AND SILVERSMITHS' WARES, AND OTHER ARTICLES OF PRECIOUS OR SEMI-PRECIOUS MATERIALS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C26" s="8" t="n">
+        <v>487.442925</v>
+      </c>
+      <c r="D26" s="9" t="n">
+        <v>2.638181762219345</v>
+      </c>
+      <c r="E26" s="8" t="n">
+        <v>707.610511</v>
+      </c>
+      <c r="F26" s="9" t="n">
+        <v>3.982541619049607</v>
+      </c>
+      <c r="G26" s="8" t="n">
+        <v>647.693992</v>
+      </c>
+      <c r="H26" s="9" t="n">
+        <v>3.507957215217012</v>
+      </c>
+      <c r="I26" s="8" t="n">
+        <v>337.7156</v>
+      </c>
+      <c r="J26" s="9" t="n">
+        <v>3.153379414227615</v>
+      </c>
+      <c r="K26" s="9" t="n">
+        <v>-15.94194459694042</v>
+      </c>
     </row>
     <row r="27">
-      <c r="A27" s="11" t="n"/>
-      <c r="C27" s="12" t="n"/>
-      <c r="D27" s="13" t="n"/>
-      <c r="E27" s="12" t="n"/>
-      <c r="F27" s="13" t="n"/>
-      <c r="G27" s="12" t="n"/>
-      <c r="H27" s="13" t="n"/>
-      <c r="I27" s="12" t="n"/>
-      <c r="J27" s="13" t="n"/>
-      <c r="K27" s="13" t="n"/>
+      <c r="A27" s="11" t="inlineStr">
+        <is>
+          <t>776</t>
+        </is>
+      </c>
+      <c r="B27" s="1" t="inlineStr">
+        <is>
+          <t>THERMIONIC, COLD CATHODE, DIODES, TRANSISTORS, PHOTOSENSITIVE SEMI-CONDUCTOR DEVICES, LIGHT EMITTING DIODES ETC, AND PARTS THEREOF</t>
+        </is>
+      </c>
+      <c r="C27" s="8" t="n">
+        <v>355.077263</v>
+      </c>
+      <c r="D27" s="9" t="n">
+        <v>1.921780605237756</v>
+      </c>
+      <c r="E27" s="8" t="n">
+        <v>298.434683</v>
+      </c>
+      <c r="F27" s="9" t="n">
+        <v>1.679636646346222</v>
+      </c>
+      <c r="G27" s="8" t="n">
+        <v>477.245348</v>
+      </c>
+      <c r="H27" s="9" t="n">
+        <v>2.584795107911629</v>
+      </c>
+      <c r="I27" s="8" t="n">
+        <v>322.255008</v>
+      </c>
+      <c r="J27" s="9" t="n">
+        <v>3.009017967659639</v>
+      </c>
+      <c r="K27" s="9" t="n">
+        <v>60.41161184015722</v>
+      </c>
     </row>
     <row r="28">
-      <c r="A28" s="11" t="n"/>
-      <c r="C28" s="12" t="n"/>
-      <c r="D28" s="13" t="n"/>
-      <c r="E28" s="12" t="n"/>
-      <c r="F28" s="13" t="n"/>
-      <c r="G28" s="12" t="n"/>
-      <c r="H28" s="13" t="n"/>
-      <c r="I28" s="12" t="n"/>
-      <c r="J28" s="13" t="n"/>
-      <c r="K28" s="13" t="n"/>
+      <c r="A28" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B28" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C28" s="8" t="n">
+        <v>8238.326736999999</v>
+      </c>
+      <c r="D28" s="9" t="n">
+        <v>44.58820147765486</v>
+      </c>
+      <c r="E28" s="8" t="n">
+        <v>7461.26644</v>
+      </c>
+      <c r="F28" s="9" t="n">
+        <v>41.99316384676781</v>
+      </c>
+      <c r="G28" s="8" t="n">
+        <v>7224.41809</v>
+      </c>
+      <c r="H28" s="9" t="n">
+        <v>39.12796764766008</v>
+      </c>
+      <c r="I28" s="8" t="n">
+        <v>3828.403331</v>
+      </c>
+      <c r="J28" s="9" t="n">
+        <v>35.74726264743421</v>
+      </c>
+      <c r="K28" s="9" t="n">
+        <v>-4.718078378813651</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="11" t="n"/>
@@ -971,136 +1270,433 @@
       <c r="K30" s="13" t="n"/>
     </row>
     <row r="31">
-      <c r="A31" s="11" t="n"/>
-      <c r="C31" s="12" t="n"/>
-      <c r="D31" s="13" t="n"/>
-      <c r="E31" s="12" t="n"/>
-      <c r="F31" s="13" t="n"/>
-      <c r="G31" s="12" t="n"/>
-      <c r="H31" s="13" t="n"/>
-      <c r="I31" s="12" t="n"/>
-      <c r="J31" s="13" t="n"/>
-      <c r="K31" s="13" t="n"/>
+      <c r="A31" s="11" t="inlineStr">
+        <is>
+          <t>897</t>
+        </is>
+      </c>
+      <c r="B31" s="1" t="inlineStr">
+        <is>
+          <t>JEWELLERY, GOLDSMITHS' AND SILVERSMITHS' WARES, AND OTHER ARTICLES OF PRECIOUS OR SEMI-PRECIOUS MATERIALS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C31" s="8" t="n">
+        <v>29.573139</v>
+      </c>
+      <c r="D31" s="9" t="n">
+        <v>7.978084227670582</v>
+      </c>
+      <c r="E31" s="8" t="n">
+        <v>338.504925</v>
+      </c>
+      <c r="F31" s="9" t="n">
+        <v>54.94065851674783</v>
+      </c>
+      <c r="G31" s="8" t="n">
+        <v>276.581213</v>
+      </c>
+      <c r="H31" s="9" t="n">
+        <v>50.01069552996462</v>
+      </c>
+      <c r="I31" s="8" t="n">
+        <v>105.56007</v>
+      </c>
+      <c r="J31" s="9" t="n">
+        <v>39.23874958216856</v>
+      </c>
+      <c r="K31" s="9" t="n">
+        <v>-53.82507291366532</v>
+      </c>
     </row>
     <row r="32">
-      <c r="A32" s="11" t="n"/>
-      <c r="C32" s="12" t="n"/>
-      <c r="D32" s="13" t="n"/>
-      <c r="E32" s="12" t="n"/>
-      <c r="F32" s="13" t="n"/>
-      <c r="G32" s="12" t="n"/>
-      <c r="H32" s="13" t="n"/>
-      <c r="I32" s="12" t="n"/>
-      <c r="J32" s="13" t="n"/>
-      <c r="K32" s="13" t="n"/>
+      <c r="A32" s="11" t="inlineStr">
+        <is>
+          <t>098</t>
+        </is>
+      </c>
+      <c r="B32" s="1" t="inlineStr">
+        <is>
+          <t>EDIBLE PRODUCTS AND PREPARATIONS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C32" s="8" t="n">
+        <v>50.578833</v>
+      </c>
+      <c r="D32" s="9" t="n">
+        <v>13.64488868805183</v>
+      </c>
+      <c r="E32" s="8" t="n">
+        <v>72.779909</v>
+      </c>
+      <c r="F32" s="9" t="n">
+        <v>11.81246071160998</v>
+      </c>
+      <c r="G32" s="8" t="n">
+        <v>78.76878000000001</v>
+      </c>
+      <c r="H32" s="9" t="n">
+        <v>14.242765917173</v>
+      </c>
+      <c r="I32" s="8" t="n">
+        <v>41.756698</v>
+      </c>
+      <c r="J32" s="9" t="n">
+        <v>15.52178410075172</v>
+      </c>
+      <c r="K32" s="9" t="n">
+        <v>6.717140846253589</v>
+      </c>
     </row>
     <row r="33">
-      <c r="A33" s="11" t="n"/>
-      <c r="C33" s="12" t="n"/>
-      <c r="D33" s="13" t="n"/>
-      <c r="E33" s="12" t="n"/>
-      <c r="F33" s="13" t="n"/>
-      <c r="G33" s="12" t="n"/>
-      <c r="H33" s="13" t="n"/>
-      <c r="I33" s="12" t="n"/>
-      <c r="J33" s="13" t="n"/>
-      <c r="K33" s="13" t="n"/>
+      <c r="A33" s="11" t="inlineStr">
+        <is>
+          <t>048</t>
+        </is>
+      </c>
+      <c r="B33" s="1" t="inlineStr">
+        <is>
+          <t>CEREAL PREPARATIONS AND PREPARATIONS OF FLOUR OR STARCH OF FRUITS OR VEGETABLES</t>
+        </is>
+      </c>
+      <c r="C33" s="8" t="n">
+        <v>51.893523</v>
+      </c>
+      <c r="D33" s="9" t="n">
+        <v>13.99955876731789</v>
+      </c>
+      <c r="E33" s="8" t="n">
+        <v>53.252373</v>
+      </c>
+      <c r="F33" s="9" t="n">
+        <v>8.643066094827075</v>
+      </c>
+      <c r="G33" s="8" t="n">
+        <v>58.823941</v>
+      </c>
+      <c r="H33" s="9" t="n">
+        <v>10.63639200694229</v>
+      </c>
+      <c r="I33" s="8" t="n">
+        <v>39.54574</v>
+      </c>
+      <c r="J33" s="9" t="n">
+        <v>14.69992762321535</v>
+      </c>
+      <c r="K33" s="9" t="n">
+        <v>-1.270524336703627</v>
+      </c>
     </row>
     <row r="34">
-      <c r="A34" s="11" t="n"/>
-      <c r="C34" s="12" t="n"/>
-      <c r="D34" s="13" t="n"/>
-      <c r="E34" s="12" t="n"/>
-      <c r="F34" s="13" t="n"/>
-      <c r="G34" s="12" t="n"/>
-      <c r="H34" s="13" t="n"/>
-      <c r="I34" s="12" t="n"/>
-      <c r="J34" s="13" t="n"/>
-      <c r="K34" s="13" t="n"/>
+      <c r="A34" s="11" t="inlineStr">
+        <is>
+          <t>122</t>
+        </is>
+      </c>
+      <c r="B34" s="1" t="inlineStr">
+        <is>
+          <t>TOBACCO, MANUFACTURED</t>
+        </is>
+      </c>
+      <c r="C34" s="8" t="n">
+        <v>38.898368</v>
+      </c>
+      <c r="D34" s="9" t="n">
+        <v>10.49379493407602</v>
+      </c>
+      <c r="E34" s="8" t="n">
+        <v>27.309467</v>
+      </c>
+      <c r="F34" s="9" t="n">
+        <v>4.43243211519417</v>
+      </c>
+      <c r="G34" s="8" t="n">
+        <v>27.8505</v>
+      </c>
+      <c r="H34" s="9" t="n">
+        <v>5.035854969141666</v>
+      </c>
+      <c r="I34" s="8" t="n">
+        <v>32.127935</v>
+      </c>
+      <c r="J34" s="9" t="n">
+        <v>11.94258393403101</v>
+      </c>
+      <c r="K34" s="9" t="n">
+        <v>121.7512016609287</v>
+      </c>
     </row>
     <row r="35">
-      <c r="A35" s="11" t="n"/>
-      <c r="C35" s="12" t="n"/>
-      <c r="D35" s="13" t="n"/>
-      <c r="E35" s="12" t="n"/>
-      <c r="F35" s="13" t="n"/>
-      <c r="G35" s="12" t="n"/>
-      <c r="H35" s="13" t="n"/>
-      <c r="I35" s="12" t="n"/>
-      <c r="J35" s="13" t="n"/>
-      <c r="K35" s="13" t="n"/>
+      <c r="A35" s="11" t="inlineStr">
+        <is>
+          <t>892</t>
+        </is>
+      </c>
+      <c r="B35" s="1" t="inlineStr">
+        <is>
+          <t>PRINTED MATTER</t>
+        </is>
+      </c>
+      <c r="C35" s="8" t="n">
+        <v>22.88347</v>
+      </c>
+      <c r="D35" s="9" t="n">
+        <v>6.173380887344186</v>
+      </c>
+      <c r="E35" s="8" t="n">
+        <v>24.621288</v>
+      </c>
+      <c r="F35" s="9" t="n">
+        <v>3.996130266791543</v>
+      </c>
+      <c r="G35" s="8" t="n">
+        <v>15.635481</v>
+      </c>
+      <c r="H35" s="9" t="n">
+        <v>2.827167005575129</v>
+      </c>
+      <c r="I35" s="8" t="n">
+        <v>8.424172</v>
+      </c>
+      <c r="J35" s="9" t="n">
+        <v>3.131430052529485</v>
+      </c>
+      <c r="K35" s="9" t="n">
+        <v>-6.114533917883991</v>
+      </c>
     </row>
     <row r="36">
-      <c r="A36" s="11" t="n"/>
-      <c r="C36" s="12" t="n"/>
-      <c r="D36" s="13" t="n"/>
-      <c r="E36" s="12" t="n"/>
-      <c r="F36" s="13" t="n"/>
-      <c r="G36" s="12" t="n"/>
-      <c r="H36" s="13" t="n"/>
-      <c r="I36" s="12" t="n"/>
-      <c r="J36" s="13" t="n"/>
-      <c r="K36" s="13" t="n"/>
+      <c r="A36" s="11" t="inlineStr">
+        <is>
+          <t>542</t>
+        </is>
+      </c>
+      <c r="B36" s="1" t="inlineStr">
+        <is>
+          <t>MEDICAMENTS (INCLUDING VETERINARY MEDICAMENTS)</t>
+        </is>
+      </c>
+      <c r="C36" s="8" t="n">
+        <v>9.870106</v>
+      </c>
+      <c r="D36" s="9" t="n">
+        <v>2.662704726881944</v>
+      </c>
+      <c r="E36" s="8" t="n">
+        <v>11.84489</v>
+      </c>
+      <c r="F36" s="9" t="n">
+        <v>1.922471457862663</v>
+      </c>
+      <c r="G36" s="8" t="n">
+        <v>17.681332</v>
+      </c>
+      <c r="H36" s="9" t="n">
+        <v>3.197092462011223</v>
+      </c>
+      <c r="I36" s="8" t="n">
+        <v>7.757246</v>
+      </c>
+      <c r="J36" s="9" t="n">
+        <v>2.883520570242883</v>
+      </c>
+      <c r="K36" s="9" t="n">
+        <v>0.6189483973597421</v>
+      </c>
     </row>
     <row r="37">
-      <c r="A37" s="11" t="n"/>
-      <c r="C37" s="12" t="n"/>
-      <c r="D37" s="13" t="n"/>
-      <c r="E37" s="12" t="n"/>
-      <c r="F37" s="13" t="n"/>
-      <c r="G37" s="12" t="n"/>
-      <c r="H37" s="13" t="n"/>
-      <c r="I37" s="12" t="n"/>
-      <c r="J37" s="13" t="n"/>
-      <c r="K37" s="13" t="n"/>
+      <c r="A37" s="11" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="B37" s="1" t="inlineStr">
+        <is>
+          <t>NON-ALCOHOLIC BEVERAGES, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C37" s="8" t="n">
+        <v>19.56867</v>
+      </c>
+      <c r="D37" s="9" t="n">
+        <v>5.279131764926627</v>
+      </c>
+      <c r="E37" s="8" t="n">
+        <v>18.576581</v>
+      </c>
+      <c r="F37" s="9" t="n">
+        <v>3.015050942404179</v>
+      </c>
+      <c r="G37" s="8" t="n">
+        <v>13.241284</v>
+      </c>
+      <c r="H37" s="9" t="n">
+        <v>2.394254531488341</v>
+      </c>
+      <c r="I37" s="8" t="n">
+        <v>7.102815</v>
+      </c>
+      <c r="J37" s="9" t="n">
+        <v>2.64025572466436</v>
+      </c>
+      <c r="K37" s="9" t="n">
+        <v>-7.215135339060897</v>
+      </c>
     </row>
     <row r="38">
-      <c r="A38" s="11" t="n"/>
-      <c r="C38" s="12" t="n"/>
-      <c r="D38" s="13" t="n"/>
-      <c r="E38" s="12" t="n"/>
-      <c r="F38" s="13" t="n"/>
-      <c r="G38" s="12" t="n"/>
-      <c r="H38" s="13" t="n"/>
-      <c r="I38" s="12" t="n"/>
-      <c r="J38" s="13" t="n"/>
-      <c r="K38" s="13" t="n"/>
+      <c r="A38" s="11" t="inlineStr">
+        <is>
+          <t>656</t>
+        </is>
+      </c>
+      <c r="B38" s="1" t="inlineStr">
+        <is>
+          <t>TULLES, LACE, EMBROIDERY, RIBBONS, TRIMMINGS AND OTHER SMALL WARES</t>
+        </is>
+      </c>
+      <c r="C38" s="8" t="n">
+        <v>5.568624</v>
+      </c>
+      <c r="D38" s="9" t="n">
+        <v>1.502273779737344</v>
+      </c>
+      <c r="E38" s="8" t="n">
+        <v>6.31751</v>
+      </c>
+      <c r="F38" s="9" t="n">
+        <v>1.025356306370253</v>
+      </c>
+      <c r="G38" s="8" t="n">
+        <v>9.657014999999999</v>
+      </c>
+      <c r="H38" s="9" t="n">
+        <v>1.746156333811803</v>
+      </c>
+      <c r="I38" s="8" t="n">
+        <v>5.020756</v>
+      </c>
+      <c r="J38" s="9" t="n">
+        <v>1.8663135350059</v>
+      </c>
+      <c r="K38" s="9" t="n">
+        <v>-6.547154379840158</v>
+      </c>
     </row>
     <row r="39">
-      <c r="A39" s="11" t="n"/>
-      <c r="C39" s="12" t="n"/>
-      <c r="D39" s="13" t="n"/>
-      <c r="E39" s="12" t="n"/>
-      <c r="F39" s="13" t="n"/>
-      <c r="G39" s="12" t="n"/>
-      <c r="H39" s="13" t="n"/>
-      <c r="I39" s="12" t="n"/>
-      <c r="J39" s="13" t="n"/>
-      <c r="K39" s="13" t="n"/>
+      <c r="A39" s="11" t="inlineStr">
+        <is>
+          <t>684</t>
+        </is>
+      </c>
+      <c r="B39" s="1" t="inlineStr">
+        <is>
+          <t>ALUMINIUM</t>
+        </is>
+      </c>
+      <c r="C39" s="8" t="n">
+        <v>5.213042</v>
+      </c>
+      <c r="D39" s="9" t="n">
+        <v>1.406346758062589</v>
+      </c>
+      <c r="E39" s="8" t="n">
+        <v>5.871625</v>
+      </c>
+      <c r="F39" s="9" t="n">
+        <v>0.952987446381761</v>
+      </c>
+      <c r="G39" s="8" t="n">
+        <v>6.797816</v>
+      </c>
+      <c r="H39" s="9" t="n">
+        <v>1.229163407583732</v>
+      </c>
+      <c r="I39" s="8" t="n">
+        <v>3.822122</v>
+      </c>
+      <c r="J39" s="9" t="n">
+        <v>1.420757754617795</v>
+      </c>
+      <c r="K39" s="9" t="n">
+        <v>3.979552972925915</v>
+      </c>
     </row>
     <row r="40">
-      <c r="A40" s="11" t="n"/>
-      <c r="C40" s="12" t="n"/>
-      <c r="D40" s="13" t="n"/>
-      <c r="E40" s="12" t="n"/>
-      <c r="F40" s="13" t="n"/>
-      <c r="G40" s="12" t="n"/>
-      <c r="H40" s="13" t="n"/>
-      <c r="I40" s="12" t="n"/>
-      <c r="J40" s="13" t="n"/>
-      <c r="K40" s="13" t="n"/>
+      <c r="A40" s="11" t="inlineStr">
+        <is>
+          <t>772</t>
+        </is>
+      </c>
+      <c r="B40" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL APPARATUS FOR SWITCHING ELECTRICAL CIRCUITS; ELECTRICAL RESISTORS; PRINTED CIRCUITS; BOARDS, CABINETS AND OTHER BASES ETC, FOR ELECTRIC CONTROL OF ELECTRICITY</t>
+        </is>
+      </c>
+      <c r="C40" s="8" t="n">
+        <v>6.674893</v>
+      </c>
+      <c r="D40" s="9" t="n">
+        <v>1.800717149596084</v>
+      </c>
+      <c r="E40" s="8" t="n">
+        <v>6.599799</v>
+      </c>
+      <c r="F40" s="9" t="n">
+        <v>1.071172902840849</v>
+      </c>
+      <c r="G40" s="8" t="n">
+        <v>5.979776</v>
+      </c>
+      <c r="H40" s="9" t="n">
+        <v>1.081247542555935</v>
+      </c>
+      <c r="I40" s="8" t="n">
+        <v>2.700638</v>
+      </c>
+      <c r="J40" s="9" t="n">
+        <v>1.003880143259554</v>
+      </c>
+      <c r="K40" s="9" t="n">
+        <v>-22.89841468055652</v>
+      </c>
     </row>
     <row r="41">
-      <c r="A41" s="11" t="n"/>
-      <c r="C41" s="12" t="n"/>
-      <c r="D41" s="13" t="n"/>
-      <c r="E41" s="12" t="n"/>
-      <c r="F41" s="13" t="n"/>
-      <c r="G41" s="12" t="n"/>
-      <c r="H41" s="13" t="n"/>
-      <c r="I41" s="12" t="n"/>
-      <c r="J41" s="13" t="n"/>
-      <c r="K41" s="13" t="n"/>
+      <c r="A41" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B41" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C41" s="8" t="n">
+        <v>129.957036</v>
+      </c>
+      <c r="D41" s="9" t="n">
+        <v>35.0591183163349</v>
+      </c>
+      <c r="E41" s="8" t="n">
+        <v>50.449896</v>
+      </c>
+      <c r="F41" s="9" t="n">
+        <v>8.188213238969691</v>
+      </c>
+      <c r="G41" s="8" t="n">
+        <v>42.026986</v>
+      </c>
+      <c r="H41" s="9" t="n">
+        <v>7.599210293752258</v>
+      </c>
+      <c r="I41" s="8" t="n">
+        <v>15.201772</v>
+      </c>
+      <c r="J41" s="9" t="n">
+        <v>5.650796979513387</v>
+      </c>
+      <c r="K41" s="9" t="n">
+        <v>-44.98647241145293</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="11" t="n"/>
@@ -1132,136 +1728,435 @@
       <c r="K43" s="13" t="n"/>
     </row>
     <row r="44">
-      <c r="A44" s="11" t="n"/>
-      <c r="C44" s="12" t="n"/>
-      <c r="D44" s="13" t="n"/>
-      <c r="E44" s="12" t="n"/>
-      <c r="F44" s="13" t="n"/>
-      <c r="G44" s="12" t="n"/>
-      <c r="H44" s="13" t="n"/>
-      <c r="I44" s="12" t="n"/>
-      <c r="J44" s="13" t="n"/>
-      <c r="K44" s="13" t="n"/>
+      <c r="A44" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B44" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C44" s="8" t="n">
+        <v>3317.118629</v>
+      </c>
+      <c r="D44" s="9" t="n">
+        <v>18.32075891839895</v>
+      </c>
+      <c r="E44" s="8" t="n">
+        <v>3399.556838</v>
+      </c>
+      <c r="F44" s="9" t="n">
+        <v>19.82054283227803</v>
+      </c>
+      <c r="G44" s="8" t="n">
+        <v>4081.43498</v>
+      </c>
+      <c r="H44" s="9" t="n">
+        <v>22.78791780710987</v>
+      </c>
+      <c r="I44" s="8" t="n">
+        <v>2483.441588</v>
+      </c>
+      <c r="J44" s="9" t="n">
+        <v>23.78634077231171</v>
+      </c>
+      <c r="K44" s="9" t="n">
+        <v>29.72362292308202</v>
+      </c>
     </row>
     <row r="45">
-      <c r="A45" s="11" t="n"/>
-      <c r="C45" s="12" t="n"/>
-      <c r="D45" s="13" t="n"/>
-      <c r="E45" s="12" t="n"/>
-      <c r="F45" s="13" t="n"/>
-      <c r="G45" s="12" t="n"/>
-      <c r="H45" s="13" t="n"/>
-      <c r="I45" s="12" t="n"/>
-      <c r="J45" s="13" t="n"/>
-      <c r="K45" s="13" t="n"/>
+      <c r="A45" s="11" t="inlineStr">
+        <is>
+          <t>845</t>
+        </is>
+      </c>
+      <c r="B45" s="1" t="inlineStr">
+        <is>
+          <t>ARTICLES OF APPAREL, OF TEXTILE FABRICS, WHETHER OR NOT KNITTED OR CROCHETED, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C45" s="8" t="n">
+        <v>1508.270162</v>
+      </c>
+      <c r="D45" s="9" t="n">
+        <v>8.330318301021041</v>
+      </c>
+      <c r="E45" s="8" t="n">
+        <v>1414.618823</v>
+      </c>
+      <c r="F45" s="9" t="n">
+        <v>8.247696481848976</v>
+      </c>
+      <c r="G45" s="8" t="n">
+        <v>1432.702091</v>
+      </c>
+      <c r="H45" s="9" t="n">
+        <v>7.999220286925275</v>
+      </c>
+      <c r="I45" s="8" t="n">
+        <v>718.786761</v>
+      </c>
+      <c r="J45" s="9" t="n">
+        <v>6.884521432831933</v>
+      </c>
+      <c r="K45" s="9" t="n">
+        <v>0.2471588458430762</v>
+      </c>
     </row>
     <row r="46">
-      <c r="A46" s="11" t="n"/>
-      <c r="C46" s="12" t="n"/>
-      <c r="D46" s="13" t="n"/>
-      <c r="E46" s="12" t="n"/>
-      <c r="F46" s="13" t="n"/>
-      <c r="G46" s="12" t="n"/>
-      <c r="H46" s="13" t="n"/>
-      <c r="I46" s="12" t="n"/>
-      <c r="J46" s="13" t="n"/>
-      <c r="K46" s="13" t="n"/>
+      <c r="A46" s="11" t="inlineStr">
+        <is>
+          <t>714</t>
+        </is>
+      </c>
+      <c r="B46" s="1" t="inlineStr">
+        <is>
+          <t>ENGINES AND MOTORS, NON-ELECTRIC (OTHER THAN THOSE OF GROUPS 712, 713 AND 718); PARTS, N.E.S. OF THESE ENGINES AND MOTORS</t>
+        </is>
+      </c>
+      <c r="C46" s="8" t="n">
+        <v>34.623706</v>
+      </c>
+      <c r="D46" s="9" t="n">
+        <v>0.1912299924825882</v>
+      </c>
+      <c r="E46" s="8" t="n">
+        <v>72.80865300000001</v>
+      </c>
+      <c r="F46" s="9" t="n">
+        <v>0.4244985726421815</v>
+      </c>
+      <c r="G46" s="8" t="n">
+        <v>249.744115</v>
+      </c>
+      <c r="H46" s="9" t="n">
+        <v>1.394398880128527</v>
+      </c>
+      <c r="I46" s="8" t="n">
+        <v>688.71142</v>
+      </c>
+      <c r="J46" s="9" t="n">
+        <v>6.596460576749709</v>
+      </c>
+      <c r="K46" s="9" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
     </row>
     <row r="47">
-      <c r="A47" s="11" t="n"/>
-      <c r="C47" s="12" t="n"/>
-      <c r="D47" s="13" t="n"/>
-      <c r="E47" s="12" t="n"/>
-      <c r="F47" s="13" t="n"/>
-      <c r="G47" s="12" t="n"/>
-      <c r="H47" s="13" t="n"/>
-      <c r="I47" s="12" t="n"/>
-      <c r="J47" s="13" t="n"/>
-      <c r="K47" s="13" t="n"/>
+      <c r="A47" s="11" t="inlineStr">
+        <is>
+          <t>752</t>
+        </is>
+      </c>
+      <c r="B47" s="1" t="inlineStr">
+        <is>
+          <t>AUTOMATIC DATA PROCESSING MACHINES &amp; UNITS THEREOF; MAGNETIC OR OPTICAL READERS, MACHINES FOR TRANSCRIBING DATA ONTO DATA MEDIA IN CODED FORM AND FOR PROCESSING SUCH DATA, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C47" s="8" t="n">
+        <v>1389.354721</v>
+      </c>
+      <c r="D47" s="9" t="n">
+        <v>7.673537109299576</v>
+      </c>
+      <c r="E47" s="8" t="n">
+        <v>1379.695626</v>
+      </c>
+      <c r="F47" s="9" t="n">
+        <v>8.044082671295417</v>
+      </c>
+      <c r="G47" s="8" t="n">
+        <v>1340.77388</v>
+      </c>
+      <c r="H47" s="9" t="n">
+        <v>7.485956563090905</v>
+      </c>
+      <c r="I47" s="8" t="n">
+        <v>576.591714</v>
+      </c>
+      <c r="J47" s="9" t="n">
+        <v>5.522580865991076</v>
+      </c>
+      <c r="K47" s="9" t="n">
+        <v>-35.71069271991527</v>
+      </c>
     </row>
     <row r="48">
-      <c r="A48" s="11" t="n"/>
-      <c r="C48" s="12" t="n"/>
-      <c r="D48" s="13" t="n"/>
-      <c r="E48" s="12" t="n"/>
-      <c r="F48" s="13" t="n"/>
-      <c r="G48" s="12" t="n"/>
-      <c r="H48" s="13" t="n"/>
-      <c r="I48" s="12" t="n"/>
-      <c r="J48" s="13" t="n"/>
-      <c r="K48" s="13" t="n"/>
+      <c r="A48" s="11" t="inlineStr">
+        <is>
+          <t>842</t>
+        </is>
+      </c>
+      <c r="B48" s="1" t="inlineStr">
+        <is>
+          <t>WOMEN'S OR GIRLS' COATS, CAPES, JACKETS, SUITS, TROUSERS, SHORTS, SHIRTS, DRESSES AND SKIRTS, UNDERWEAR, NIGHTWEAR AND SIMILAR ARTICLES, OF TEXTILE FABRICS, NOT KNITTED OR CROCHETED</t>
+        </is>
+      </c>
+      <c r="C48" s="8" t="n">
+        <v>908.704558</v>
+      </c>
+      <c r="D48" s="9" t="n">
+        <v>5.018860944441754</v>
+      </c>
+      <c r="E48" s="8" t="n">
+        <v>879.101199</v>
+      </c>
+      <c r="F48" s="9" t="n">
+        <v>5.125451286449845</v>
+      </c>
+      <c r="G48" s="8" t="n">
+        <v>930.956425</v>
+      </c>
+      <c r="H48" s="9" t="n">
+        <v>5.19781856108384</v>
+      </c>
+      <c r="I48" s="8" t="n">
+        <v>526.876205</v>
+      </c>
+      <c r="J48" s="9" t="n">
+        <v>5.046406977119674</v>
+      </c>
+      <c r="K48" s="9" t="n">
+        <v>-1.145802475376245</v>
+      </c>
     </row>
     <row r="49">
-      <c r="A49" s="11" t="n"/>
-      <c r="C49" s="12" t="n"/>
-      <c r="D49" s="13" t="n"/>
-      <c r="E49" s="12" t="n"/>
-      <c r="F49" s="13" t="n"/>
-      <c r="G49" s="12" t="n"/>
-      <c r="H49" s="13" t="n"/>
-      <c r="I49" s="12" t="n"/>
-      <c r="J49" s="13" t="n"/>
-      <c r="K49" s="13" t="n"/>
+      <c r="A49" s="11" t="inlineStr">
+        <is>
+          <t>778</t>
+        </is>
+      </c>
+      <c r="B49" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL MACHINERY AND APPARATUS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C49" s="8" t="n">
+        <v>572.460871</v>
+      </c>
+      <c r="D49" s="9" t="n">
+        <v>3.161755360847446</v>
+      </c>
+      <c r="E49" s="8" t="n">
+        <v>535.840823</v>
+      </c>
+      <c r="F49" s="9" t="n">
+        <v>3.124129552663361</v>
+      </c>
+      <c r="G49" s="8" t="n">
+        <v>550.305956</v>
+      </c>
+      <c r="H49" s="9" t="n">
+        <v>3.072528891319255</v>
+      </c>
+      <c r="I49" s="8" t="n">
+        <v>490.726829</v>
+      </c>
+      <c r="J49" s="9" t="n">
+        <v>4.70016916730072</v>
+      </c>
+      <c r="K49" s="9" t="n">
+        <v>83.31825557430084</v>
+      </c>
     </row>
     <row r="50">
-      <c r="A50" s="11" t="n"/>
-      <c r="C50" s="12" t="n"/>
-      <c r="D50" s="13" t="n"/>
-      <c r="E50" s="12" t="n"/>
-      <c r="F50" s="13" t="n"/>
-      <c r="G50" s="12" t="n"/>
-      <c r="H50" s="13" t="n"/>
-      <c r="I50" s="12" t="n"/>
-      <c r="J50" s="13" t="n"/>
-      <c r="K50" s="13" t="n"/>
+      <c r="A50" s="11" t="inlineStr">
+        <is>
+          <t>772</t>
+        </is>
+      </c>
+      <c r="B50" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL APPARATUS FOR SWITCHING ELECTRICAL CIRCUITS; ELECTRICAL RESISTORS; PRINTED CIRCUITS; BOARDS, CABINETS AND OTHER BASES ETC, FOR ELECTRIC CONTROL OF ELECTRICITY</t>
+        </is>
+      </c>
+      <c r="C50" s="8" t="n">
+        <v>716.306839</v>
+      </c>
+      <c r="D50" s="9" t="n">
+        <v>3.956230203583536</v>
+      </c>
+      <c r="E50" s="8" t="n">
+        <v>731.1048950000001</v>
+      </c>
+      <c r="F50" s="9" t="n">
+        <v>4.262583794527994</v>
+      </c>
+      <c r="G50" s="8" t="n">
+        <v>672.241444</v>
+      </c>
+      <c r="H50" s="9" t="n">
+        <v>3.753332552759386</v>
+      </c>
+      <c r="I50" s="8" t="n">
+        <v>381.450733</v>
+      </c>
+      <c r="J50" s="9" t="n">
+        <v>3.653525481262935</v>
+      </c>
+      <c r="K50" s="9" t="n">
+        <v>-2.355809963028288</v>
+      </c>
     </row>
     <row r="51">
-      <c r="A51" s="11" t="n"/>
-      <c r="C51" s="12" t="n"/>
-      <c r="D51" s="13" t="n"/>
-      <c r="E51" s="12" t="n"/>
-      <c r="F51" s="13" t="n"/>
-      <c r="G51" s="12" t="n"/>
-      <c r="H51" s="13" t="n"/>
-      <c r="I51" s="12" t="n"/>
-      <c r="J51" s="13" t="n"/>
-      <c r="K51" s="13" t="n"/>
+      <c r="A51" s="11" t="inlineStr">
+        <is>
+          <t>894</t>
+        </is>
+      </c>
+      <c r="B51" s="1" t="inlineStr">
+        <is>
+          <t>BABY CARRIAGES, TOYS, GAMES AND SPORTING GOODS</t>
+        </is>
+      </c>
+      <c r="C51" s="8" t="n">
+        <v>937.825698</v>
+      </c>
+      <c r="D51" s="9" t="n">
+        <v>5.179699746136881</v>
+      </c>
+      <c r="E51" s="8" t="n">
+        <v>877.913363</v>
+      </c>
+      <c r="F51" s="9" t="n">
+        <v>5.118525808972148</v>
+      </c>
+      <c r="G51" s="8" t="n">
+        <v>847.901773</v>
+      </c>
+      <c r="H51" s="9" t="n">
+        <v>4.734098670273742</v>
+      </c>
+      <c r="I51" s="8" t="n">
+        <v>349.313216</v>
+      </c>
+      <c r="J51" s="9" t="n">
+        <v>3.345713155564715</v>
+      </c>
+      <c r="K51" s="9" t="n">
+        <v>-30.64147467602698</v>
+      </c>
     </row>
     <row r="52">
-      <c r="A52" s="11" t="n"/>
-      <c r="C52" s="12" t="n"/>
-      <c r="D52" s="13" t="n"/>
-      <c r="E52" s="12" t="n"/>
-      <c r="F52" s="13" t="n"/>
-      <c r="G52" s="12" t="n"/>
-      <c r="H52" s="13" t="n"/>
-      <c r="I52" s="12" t="n"/>
-      <c r="J52" s="13" t="n"/>
-      <c r="K52" s="13" t="n"/>
+      <c r="A52" s="11" t="inlineStr">
+        <is>
+          <t>776</t>
+        </is>
+      </c>
+      <c r="B52" s="1" t="inlineStr">
+        <is>
+          <t>THERMIONIC, COLD CATHODE, DIODES, TRANSISTORS, PHOTOSENSITIVE SEMI-CONDUCTOR DEVICES, LIGHT EMITTING DIODES ETC, AND PARTS THEREOF</t>
+        </is>
+      </c>
+      <c r="C52" s="8" t="n">
+        <v>354.998688</v>
+      </c>
+      <c r="D52" s="9" t="n">
+        <v>1.960691222296327</v>
+      </c>
+      <c r="E52" s="8" t="n">
+        <v>298.434683</v>
+      </c>
+      <c r="F52" s="9" t="n">
+        <v>1.739973090292193</v>
+      </c>
+      <c r="G52" s="8" t="n">
+        <v>477.195399</v>
+      </c>
+      <c r="H52" s="9" t="n">
+        <v>2.664329968167961</v>
+      </c>
+      <c r="I52" s="8" t="n">
+        <v>322.255008</v>
+      </c>
+      <c r="J52" s="9" t="n">
+        <v>3.086550323112345</v>
+      </c>
+      <c r="K52" s="9" t="n">
+        <v>60.451505761078</v>
+      </c>
     </row>
     <row r="53">
-      <c r="A53" s="11" t="n"/>
-      <c r="C53" s="12" t="n"/>
-      <c r="D53" s="13" t="n"/>
-      <c r="E53" s="12" t="n"/>
-      <c r="F53" s="13" t="n"/>
-      <c r="G53" s="12" t="n"/>
-      <c r="H53" s="13" t="n"/>
-      <c r="I53" s="12" t="n"/>
-      <c r="J53" s="13" t="n"/>
-      <c r="K53" s="13" t="n"/>
+      <c r="A53" s="11" t="inlineStr">
+        <is>
+          <t>851</t>
+        </is>
+      </c>
+      <c r="B53" s="1" t="inlineStr">
+        <is>
+          <t>FOOTWEAR</t>
+        </is>
+      </c>
+      <c r="C53" s="8" t="n">
+        <v>664.3209450000001</v>
+      </c>
+      <c r="D53" s="9" t="n">
+        <v>3.669107209909184</v>
+      </c>
+      <c r="E53" s="8" t="n">
+        <v>547.315244</v>
+      </c>
+      <c r="F53" s="9" t="n">
+        <v>3.191029229222347</v>
+      </c>
+      <c r="G53" s="8" t="n">
+        <v>457.551301</v>
+      </c>
+      <c r="H53" s="9" t="n">
+        <v>2.5546508742188</v>
+      </c>
+      <c r="I53" s="8" t="n">
+        <v>276.447564</v>
+      </c>
+      <c r="J53" s="9" t="n">
+        <v>2.647807782052594</v>
+      </c>
+      <c r="K53" s="9" t="n">
+        <v>2.869930768317253</v>
+      </c>
     </row>
     <row r="54">
-      <c r="A54" s="11" t="n"/>
-      <c r="C54" s="12" t="n"/>
-      <c r="D54" s="13" t="n"/>
-      <c r="E54" s="12" t="n"/>
-      <c r="F54" s="13" t="n"/>
-      <c r="G54" s="12" t="n"/>
-      <c r="H54" s="13" t="n"/>
-      <c r="I54" s="12" t="n"/>
-      <c r="J54" s="13" t="n"/>
-      <c r="K54" s="13" t="n"/>
+      <c r="A54" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B54" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C54" s="8" t="n">
+        <v>7701.807873</v>
+      </c>
+      <c r="D54" s="9" t="n">
+        <v>42.53781099158272</v>
+      </c>
+      <c r="E54" s="8" t="n">
+        <v>7015.293673</v>
+      </c>
+      <c r="F54" s="9" t="n">
+        <v>40.9014866798075</v>
+      </c>
+      <c r="G54" s="8" t="n">
+        <v>6869.714407</v>
+      </c>
+      <c r="H54" s="9" t="n">
+        <v>38.35574694492244</v>
+      </c>
+      <c r="I54" s="8" t="n">
+        <v>3626.019534</v>
+      </c>
+      <c r="J54" s="9" t="n">
+        <v>34.72992346570259</v>
+      </c>
+      <c r="K54" s="9" t="n">
+        <v>-3.792706833435622</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="11" t="n"/>
@@ -1293,136 +2188,433 @@
       <c r="K56" s="13" t="n"/>
     </row>
     <row r="57">
-      <c r="A57" s="11" t="n"/>
-      <c r="C57" s="12" t="n"/>
-      <c r="D57" s="13" t="n"/>
-      <c r="E57" s="12" t="n"/>
-      <c r="F57" s="13" t="n"/>
-      <c r="G57" s="12" t="n"/>
-      <c r="H57" s="13" t="n"/>
-      <c r="I57" s="12" t="n"/>
-      <c r="J57" s="13" t="n"/>
-      <c r="K57" s="13" t="n"/>
+      <c r="A57" s="11" t="inlineStr">
+        <is>
+          <t>714</t>
+        </is>
+      </c>
+      <c r="B57" s="1" t="inlineStr">
+        <is>
+          <t>ENGINES AND MOTORS, NON-ELECTRIC (OTHER THAN THOSE OF GROUPS 712, 713 AND 718); PARTS, N.E.S. OF THESE ENGINES AND MOTORS</t>
+        </is>
+      </c>
+      <c r="C57" s="8" t="n">
+        <v>263.404708</v>
+      </c>
+      <c r="D57" s="9" t="n">
+        <v>2.226915493217988</v>
+      </c>
+      <c r="E57" s="8" t="n">
+        <v>291.706788</v>
+      </c>
+      <c r="F57" s="9" t="n">
+        <v>2.677039959462001</v>
+      </c>
+      <c r="G57" s="8" t="n">
+        <v>635.063712</v>
+      </c>
+      <c r="H57" s="9" t="n">
+        <v>5.533323526107802</v>
+      </c>
+      <c r="I57" s="8" t="n">
+        <v>874.6317</v>
+      </c>
+      <c r="J57" s="9" t="n">
+        <v>14.22723478528593</v>
+      </c>
+      <c r="K57" s="9" t="n">
+        <v>284.0676963942045</v>
+      </c>
     </row>
     <row r="58">
-      <c r="A58" s="11" t="n"/>
-      <c r="C58" s="12" t="n"/>
-      <c r="D58" s="13" t="n"/>
-      <c r="E58" s="12" t="n"/>
-      <c r="F58" s="13" t="n"/>
-      <c r="G58" s="12" t="n"/>
-      <c r="H58" s="13" t="n"/>
-      <c r="I58" s="12" t="n"/>
-      <c r="J58" s="13" t="n"/>
-      <c r="K58" s="13" t="n"/>
+      <c r="A58" s="11" t="inlineStr">
+        <is>
+          <t>292</t>
+        </is>
+      </c>
+      <c r="B58" s="1" t="inlineStr">
+        <is>
+          <t>CRUDE VEGETABLE MATERIALS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C58" s="8" t="n">
+        <v>1604.236885</v>
+      </c>
+      <c r="D58" s="9" t="n">
+        <v>13.56277950050256</v>
+      </c>
+      <c r="E58" s="8" t="n">
+        <v>1119.093215</v>
+      </c>
+      <c r="F58" s="9" t="n">
+        <v>10.27009784536725</v>
+      </c>
+      <c r="G58" s="8" t="n">
+        <v>1000.740816</v>
+      </c>
+      <c r="H58" s="9" t="n">
+        <v>8.719475851123926</v>
+      </c>
+      <c r="I58" s="8" t="n">
+        <v>624.318703</v>
+      </c>
+      <c r="J58" s="9" t="n">
+        <v>10.15550747637685</v>
+      </c>
+      <c r="K58" s="9" t="n">
+        <v>-26.73886387170424</v>
+      </c>
     </row>
     <row r="59">
-      <c r="A59" s="11" t="n"/>
-      <c r="C59" s="12" t="n"/>
-      <c r="D59" s="13" t="n"/>
-      <c r="E59" s="12" t="n"/>
-      <c r="F59" s="13" t="n"/>
-      <c r="G59" s="12" t="n"/>
-      <c r="H59" s="13" t="n"/>
-      <c r="I59" s="12" t="n"/>
-      <c r="J59" s="13" t="n"/>
-      <c r="K59" s="13" t="n"/>
+      <c r="A59" s="11" t="inlineStr">
+        <is>
+          <t>011</t>
+        </is>
+      </c>
+      <c r="B59" s="1" t="inlineStr">
+        <is>
+          <t>MEAT OF BOVINE ANIMALS, FRESH, CHILLED OR FROZEN</t>
+        </is>
+      </c>
+      <c r="C59" s="8" t="n">
+        <v>870.463885</v>
+      </c>
+      <c r="D59" s="9" t="n">
+        <v>7.35920601614008</v>
+      </c>
+      <c r="E59" s="8" t="n">
+        <v>792.311953</v>
+      </c>
+      <c r="F59" s="9" t="n">
+        <v>7.271173814921232</v>
+      </c>
+      <c r="G59" s="8" t="n">
+        <v>895.187912</v>
+      </c>
+      <c r="H59" s="9" t="n">
+        <v>7.799791170806058</v>
+      </c>
+      <c r="I59" s="8" t="n">
+        <v>431.105675</v>
+      </c>
+      <c r="J59" s="9" t="n">
+        <v>7.012599309508414</v>
+      </c>
+      <c r="K59" s="9" t="n">
+        <v>-23.34445354003607</v>
+      </c>
     </row>
     <row r="60">
-      <c r="A60" s="11" t="n"/>
-      <c r="C60" s="12" t="n"/>
-      <c r="D60" s="13" t="n"/>
-      <c r="E60" s="12" t="n"/>
-      <c r="F60" s="13" t="n"/>
-      <c r="G60" s="12" t="n"/>
-      <c r="H60" s="13" t="n"/>
-      <c r="I60" s="12" t="n"/>
-      <c r="J60" s="13" t="n"/>
-      <c r="K60" s="13" t="n"/>
+      <c r="A60" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B60" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C60" s="8" t="n">
+        <v>879.731283</v>
+      </c>
+      <c r="D60" s="9" t="n">
+        <v>7.43755583890793</v>
+      </c>
+      <c r="E60" s="8" t="n">
+        <v>944.310881</v>
+      </c>
+      <c r="F60" s="9" t="n">
+        <v>8.666092345412842</v>
+      </c>
+      <c r="G60" s="8" t="n">
+        <v>865.565206</v>
+      </c>
+      <c r="H60" s="9" t="n">
+        <v>7.54168790822069</v>
+      </c>
+      <c r="I60" s="8" t="n">
+        <v>368.850523</v>
+      </c>
+      <c r="J60" s="9" t="n">
+        <v>5.999923157823468</v>
+      </c>
+      <c r="K60" s="9" t="n">
+        <v>-25.18074827863884</v>
+      </c>
     </row>
     <row r="61">
-      <c r="A61" s="11" t="n"/>
-      <c r="C61" s="12" t="n"/>
-      <c r="D61" s="13" t="n"/>
-      <c r="E61" s="12" t="n"/>
-      <c r="F61" s="13" t="n"/>
-      <c r="G61" s="12" t="n"/>
-      <c r="H61" s="13" t="n"/>
-      <c r="I61" s="12" t="n"/>
-      <c r="J61" s="13" t="n"/>
-      <c r="K61" s="13" t="n"/>
+      <c r="A61" s="11" t="inlineStr">
+        <is>
+          <t>036</t>
+        </is>
+      </c>
+      <c r="B61" s="1" t="inlineStr">
+        <is>
+          <t>CRUSTACEANS, MOLLUSCS &amp; AQUATIC INVERTEBRATES; CRUSTACEANS, IN SHELL, COOKED BY BOILING IN WATER; FLOURS, MEALS &amp; PELLETS OF CRUSTACEANS, FIT FOR HUMAN CONSUMPTION</t>
+        </is>
+      </c>
+      <c r="C61" s="8" t="n">
+        <v>750.978627</v>
+      </c>
+      <c r="D61" s="9" t="n">
+        <v>6.349035870466949</v>
+      </c>
+      <c r="E61" s="8" t="n">
+        <v>613.496028</v>
+      </c>
+      <c r="F61" s="9" t="n">
+        <v>5.630151403700688</v>
+      </c>
+      <c r="G61" s="8" t="n">
+        <v>518.212428</v>
+      </c>
+      <c r="H61" s="9" t="n">
+        <v>4.515195822389936</v>
+      </c>
+      <c r="I61" s="8" t="n">
+        <v>259.916465</v>
+      </c>
+      <c r="J61" s="9" t="n">
+        <v>4.227942540976451</v>
+      </c>
+      <c r="K61" s="9" t="n">
+        <v>-12.28107592301005</v>
+      </c>
     </row>
     <row r="62">
-      <c r="A62" s="11" t="n"/>
-      <c r="C62" s="12" t="n"/>
-      <c r="D62" s="13" t="n"/>
-      <c r="E62" s="12" t="n"/>
-      <c r="F62" s="13" t="n"/>
-      <c r="G62" s="12" t="n"/>
-      <c r="H62" s="13" t="n"/>
-      <c r="I62" s="12" t="n"/>
-      <c r="J62" s="13" t="n"/>
-      <c r="K62" s="13" t="n"/>
+      <c r="A62" s="11" t="inlineStr">
+        <is>
+          <t>321</t>
+        </is>
+      </c>
+      <c r="B62" s="1" t="inlineStr">
+        <is>
+          <t>COAL, WHETHER OR NOT PULVERIZED, BUT NOT AGGLOMERATED</t>
+        </is>
+      </c>
+      <c r="C62" s="8" t="n">
+        <v>28.868122</v>
+      </c>
+      <c r="D62" s="9" t="n">
+        <v>0.2440611962862374</v>
+      </c>
+      <c r="E62" s="8" t="n">
+        <v>222.782207</v>
+      </c>
+      <c r="F62" s="9" t="n">
+        <v>2.044508029741616</v>
+      </c>
+      <c r="G62" s="8" t="n">
+        <v>384.42721</v>
+      </c>
+      <c r="H62" s="9" t="n">
+        <v>3.349522394327869</v>
+      </c>
+      <c r="I62" s="8" t="n">
+        <v>215.570195</v>
+      </c>
+      <c r="J62" s="9" t="n">
+        <v>3.506582001286795</v>
+      </c>
+      <c r="K62" s="9" t="n">
+        <v>101.5692060130984</v>
+      </c>
     </row>
     <row r="63">
-      <c r="A63" s="11" t="n"/>
-      <c r="C63" s="12" t="n"/>
-      <c r="D63" s="13" t="n"/>
-      <c r="E63" s="12" t="n"/>
-      <c r="F63" s="13" t="n"/>
-      <c r="G63" s="12" t="n"/>
-      <c r="H63" s="13" t="n"/>
-      <c r="I63" s="12" t="n"/>
-      <c r="J63" s="13" t="n"/>
-      <c r="K63" s="13" t="n"/>
+      <c r="A63" s="11" t="inlineStr">
+        <is>
+          <t>542</t>
+        </is>
+      </c>
+      <c r="B63" s="1" t="inlineStr">
+        <is>
+          <t>MEDICAMENTS (INCLUDING VETERINARY MEDICAMENTS)</t>
+        </is>
+      </c>
+      <c r="C63" s="8" t="n">
+        <v>297.445075</v>
+      </c>
+      <c r="D63" s="9" t="n">
+        <v>2.514704657059077</v>
+      </c>
+      <c r="E63" s="8" t="n">
+        <v>393.242638</v>
+      </c>
+      <c r="F63" s="9" t="n">
+        <v>3.608850732984144</v>
+      </c>
+      <c r="G63" s="8" t="n">
+        <v>348.478855</v>
+      </c>
+      <c r="H63" s="9" t="n">
+        <v>3.036303618498374</v>
+      </c>
+      <c r="I63" s="8" t="n">
+        <v>200.96862</v>
+      </c>
+      <c r="J63" s="9" t="n">
+        <v>3.269064843196182</v>
+      </c>
+      <c r="K63" s="9" t="n">
+        <v>-14.33308397810631</v>
+      </c>
     </row>
     <row r="64">
-      <c r="A64" s="11" t="n"/>
-      <c r="C64" s="12" t="n"/>
-      <c r="D64" s="13" t="n"/>
-      <c r="E64" s="12" t="n"/>
-      <c r="F64" s="13" t="n"/>
-      <c r="G64" s="12" t="n"/>
-      <c r="H64" s="13" t="n"/>
-      <c r="I64" s="12" t="n"/>
-      <c r="J64" s="13" t="n"/>
-      <c r="K64" s="13" t="n"/>
+      <c r="A64" s="11" t="inlineStr">
+        <is>
+          <t>776</t>
+        </is>
+      </c>
+      <c r="B64" s="1" t="inlineStr">
+        <is>
+          <t>THERMIONIC, COLD CATHODE, DIODES, TRANSISTORS, PHOTOSENSITIVE SEMI-CONDUCTOR DEVICES, LIGHT EMITTING DIODES ETC, AND PARTS THEREOF</t>
+        </is>
+      </c>
+      <c r="C64" s="8" t="n">
+        <v>469.515372</v>
+      </c>
+      <c r="D64" s="9" t="n">
+        <v>3.969447107265855</v>
+      </c>
+      <c r="E64" s="8" t="n">
+        <v>183.381843</v>
+      </c>
+      <c r="F64" s="9" t="n">
+        <v>1.682924572707534</v>
+      </c>
+      <c r="G64" s="8" t="n">
+        <v>337.046658</v>
+      </c>
+      <c r="H64" s="9" t="n">
+        <v>2.936694644753077</v>
+      </c>
+      <c r="I64" s="8" t="n">
+        <v>199.49032</v>
+      </c>
+      <c r="J64" s="9" t="n">
+        <v>3.245018011617715</v>
+      </c>
+      <c r="K64" s="9" t="n">
+        <v>3.815839811266031</v>
+      </c>
     </row>
     <row r="65">
-      <c r="A65" s="11" t="n"/>
-      <c r="C65" s="12" t="n"/>
-      <c r="D65" s="13" t="n"/>
-      <c r="E65" s="12" t="n"/>
-      <c r="F65" s="13" t="n"/>
-      <c r="G65" s="12" t="n"/>
-      <c r="H65" s="13" t="n"/>
-      <c r="I65" s="12" t="n"/>
-      <c r="J65" s="13" t="n"/>
-      <c r="K65" s="13" t="n"/>
+      <c r="A65" s="11" t="inlineStr">
+        <is>
+          <t>897</t>
+        </is>
+      </c>
+      <c r="B65" s="1" t="inlineStr">
+        <is>
+          <t>JEWELLERY, GOLDSMITHS' AND SILVERSMITHS' WARES, AND OTHER ARTICLES OF PRECIOUS OR SEMI-PRECIOUS MATERIALS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C65" s="8" t="n">
+        <v>302.436429</v>
+      </c>
+      <c r="D65" s="9" t="n">
+        <v>2.556903308856659</v>
+      </c>
+      <c r="E65" s="8" t="n">
+        <v>337.804354</v>
+      </c>
+      <c r="F65" s="9" t="n">
+        <v>3.100084712935263</v>
+      </c>
+      <c r="G65" s="8" t="n">
+        <v>391.79417</v>
+      </c>
+      <c r="H65" s="9" t="n">
+        <v>3.413710872292574</v>
+      </c>
+      <c r="I65" s="8" t="n">
+        <v>194.121521</v>
+      </c>
+      <c r="J65" s="9" t="n">
+        <v>3.157686207970525</v>
+      </c>
+      <c r="K65" s="9" t="n">
+        <v>-28.11044328430221</v>
+      </c>
     </row>
     <row r="66">
-      <c r="A66" s="11" t="n"/>
-      <c r="C66" s="12" t="n"/>
-      <c r="D66" s="13" t="n"/>
-      <c r="E66" s="12" t="n"/>
-      <c r="F66" s="13" t="n"/>
-      <c r="G66" s="12" t="n"/>
-      <c r="H66" s="13" t="n"/>
-      <c r="I66" s="12" t="n"/>
-      <c r="J66" s="13" t="n"/>
-      <c r="K66" s="13" t="n"/>
+      <c r="A66" s="11" t="inlineStr">
+        <is>
+          <t>874</t>
+        </is>
+      </c>
+      <c r="B66" s="1" t="inlineStr">
+        <is>
+          <t>MEASURING, CHECKING, ANALYSING AND CONTROLLING INSTRUMENTS AND APPARATUS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C66" s="8" t="n">
+        <v>297.60508</v>
+      </c>
+      <c r="D66" s="9" t="n">
+        <v>2.516057395270167</v>
+      </c>
+      <c r="E66" s="8" t="n">
+        <v>297.5648</v>
+      </c>
+      <c r="F66" s="9" t="n">
+        <v>2.730799874733524</v>
+      </c>
+      <c r="G66" s="8" t="n">
+        <v>351.936685</v>
+      </c>
+      <c r="H66" s="9" t="n">
+        <v>3.06643176426823</v>
+      </c>
+      <c r="I66" s="8" t="n">
+        <v>184.795139</v>
+      </c>
+      <c r="J66" s="9" t="n">
+        <v>3.005978207435826</v>
+      </c>
+      <c r="K66" s="9" t="n">
+        <v>-1.89428589154198</v>
+      </c>
     </row>
     <row r="67">
-      <c r="A67" s="11" t="n"/>
-      <c r="C67" s="12" t="n"/>
-      <c r="D67" s="13" t="n"/>
-      <c r="E67" s="12" t="n"/>
-      <c r="F67" s="13" t="n"/>
-      <c r="G67" s="12" t="n"/>
-      <c r="H67" s="13" t="n"/>
-      <c r="I67" s="12" t="n"/>
-      <c r="J67" s="13" t="n"/>
-      <c r="K67" s="13" t="n"/>
+      <c r="A67" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B67" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C67" s="8" t="n">
+        <v>6063.545502</v>
+      </c>
+      <c r="D67" s="9" t="n">
+        <v>51.26333361602649</v>
+      </c>
+      <c r="E67" s="8" t="n">
+        <v>5700.922169</v>
+      </c>
+      <c r="F67" s="9" t="n">
+        <v>52.31827670803391</v>
+      </c>
+      <c r="G67" s="8" t="n">
+        <v>5748.621726</v>
+      </c>
+      <c r="H67" s="9" t="n">
+        <v>50.08786242721146</v>
+      </c>
+      <c r="I67" s="8" t="n">
+        <v>2593.818588</v>
+      </c>
+      <c r="J67" s="9" t="n">
+        <v>42.19246345852184</v>
+      </c>
+      <c r="K67" s="9" t="n">
+        <v>-25.18179443241726</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="11" t="n"/>
